--- a/inst/extdata/tma1/example_p53.xlsx
+++ b/inst/extdata/tma1/example_p53.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahokada/Documents/TMAtools/inst/extdata/tma1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E5C3C0-0577-D943-9E26-BFBA23B429DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4231EED-6DCF-9341-8426-359006041102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9580" yWindow="1560" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9580" yWindow="1560" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TMA map" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -368,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:M9"/>
+  <dimension ref="C2:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -538,6 +535,7 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="3:13" ht="63" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -545,10 +543,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C2:M11"/>
+  <dimension ref="C2:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -715,11 +713,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="K11" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/tma1/example_p53.xlsx
+++ b/inst/extdata/tma1/example_p53.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahokada/Documents/TMAtools/inst/extdata/tma1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4231EED-6DCF-9341-8426-359006041102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D72795-1B55-1D44-9776-1000CACAABF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9580" yWindow="1560" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TMA map" sheetId="1" r:id="rId1"/>
-    <sheet name="P53" sheetId="2" r:id="rId2"/>
+    <sheet name="p53" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -546,7 +546,7 @@
   <dimension ref="C2:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
